--- a/templates/danh_sach_sinh_vien.xlsx
+++ b/templates/danh_sach_sinh_vien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nodejs\phan-chia-phong-ktx\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Document\AnhDucUni\phan-chia-phong-ktx\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AEB9CD-22A1-45CD-A5B7-1C89DB15688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273DC5AF-2A0C-459F-93AF-1B98E81F870A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="1215" windowWidth="19455" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-import chia phong" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'DATA-import chia phong'!$A$1:$N$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -337,10 +326,10 @@
     <t>Chu Phụng Linh</t>
   </si>
   <si>
-    <t xml:space="preserve"> Phòng</t>
-  </si>
-  <si>
     <t>Khu</t>
+  </si>
+  <si>
+    <t>Phòng</t>
   </si>
 </sst>
 </file>
@@ -1032,9 +1021,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1072,7 +1061,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1178,7 +1167,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1320,7 +1309,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1331,7 +1320,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1370,10 +1359,10 @@
         <v>13</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>21</v>

--- a/templates/danh_sach_sinh_vien.xlsx
+++ b/templates/danh_sach_sinh_vien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Document\AnhDucUni\phan-chia-phong-ktx\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273DC5AF-2A0C-459F-93AF-1B98E81F870A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32CC24-02CE-4EC9-ABB4-10CF035FD53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/templates/danh_sach_sinh_vien.xlsx
+++ b/templates/danh_sach_sinh_vien.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Document\AnhDucUni\phan-chia-phong-ktx\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nodejs\phan-chia-phong-ktx\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32CC24-02CE-4EC9-ABB4-10CF035FD53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8DCD85-7AF2-476A-8622-C8A4408F2182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="19455" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA-import chia phong" sheetId="2" r:id="rId1"/>
+    <sheet name="students" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DATA-import chia phong'!$A$1:$I$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'DATA-import chia phong'!$A$1:$N$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">students!$A$1:$J$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">students!$A$1:$O$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
   <si>
     <t>Nữ</t>
   </si>
@@ -146,6 +157,12 @@
     <t>Triệu Gia Hưng</t>
   </si>
   <si>
+    <t>58LVH</t>
+  </si>
+  <si>
+    <t>Hòa Lạc</t>
+  </si>
+  <si>
     <t>0915023001</t>
   </si>
   <si>
@@ -326,10 +343,13 @@
     <t>Chu Phụng Linh</t>
   </si>
   <si>
+    <t>KTX</t>
+  </si>
+  <si>
+    <t>Phòng</t>
+  </si>
+  <si>
     <t>Khu</t>
-  </si>
-  <si>
-    <t>Phòng</t>
   </si>
 </sst>
 </file>
@@ -1021,9 +1041,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1061,7 +1081,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1167,7 +1187,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1309,7 +1329,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1317,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1329,23 +1349,24 @@
     <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
     <col min="4" max="4" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="10" customWidth="1"/>
-    <col min="8" max="9" width="8.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9" style="7" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="8.7109375" style="7"/>
+    <col min="5" max="5" width="12.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="10" customWidth="1"/>
+    <col min="9" max="10" width="8.140625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="7" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9" style="7" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="19" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
@@ -1358,50 +1379,53 @@
       <c r="D1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>100</v>
+      <c r="E1" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1414,40 +1438,43 @@
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>2</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>3</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="3">
         <v>1</v>
       </c>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>2</v>
@@ -1461,30 +1488,33 @@
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="3"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A26" si="0">A3+1</f>
         <v>3</v>
@@ -1498,32 +1528,35 @@
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
+      <c r="K4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="3"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="3"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1537,30 +1570,33 @@
       <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="S5" s="3"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1574,28 +1610,31 @@
       <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1609,28 +1648,31 @@
       <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1644,34 +1686,37 @@
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" s="5">
         <v>10000000118</v>
@@ -1679,28 +1724,31 @@
       <c r="D9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1714,28 +1762,31 @@
       <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1749,38 +1800,41 @@
       <c r="D11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" s="5">
         <v>10000000121</v>
@@ -1788,28 +1842,31 @@
       <c r="D12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1823,28 +1880,31 @@
       <c r="D13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1858,28 +1918,31 @@
       <c r="D14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1893,28 +1956,31 @@
       <c r="D15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1928,34 +1994,37 @@
       <c r="D16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C17" s="5">
         <v>10000000126</v>
@@ -1963,34 +2032,37 @@
       <c r="D17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C18" s="5">
         <v>10000000127</v>
@@ -1998,28 +2070,31 @@
       <c r="D18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2033,28 +2108,31 @@
       <c r="D19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2068,34 +2146,37 @@
       <c r="D20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C21" s="5">
         <v>10000000130</v>
@@ -2103,28 +2184,31 @@
       <c r="D21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2138,28 +2222,31 @@
       <c r="D22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2173,28 +2260,31 @@
       <c r="D23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2208,34 +2298,37 @@
       <c r="D24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C25" s="5">
         <v>10000000134</v>
@@ -2243,28 +2336,31 @@
       <c r="D25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2278,36 +2374,39 @@
       <c r="D26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="2" priority="3437"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H5">
+  <conditionalFormatting sqref="H5:I5">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:N3 L4 N4">
+  <conditionalFormatting sqref="M1:O3 M4 O4">
     <cfRule type="duplicateValues" dxfId="0" priority="3438"/>
   </conditionalFormatting>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.3"/>
